--- a/Ontwerpen/Diagramiseren_Taart_Bakken.xlsx
+++ b/Ontwerpen/Diagramiseren_Taart_Bakken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\Ontwerpen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A68B0-C7D9-470C-81A3-E489D304ED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF4F472-7393-42C4-9768-5D1803C59595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45507C82-DFC2-44BF-9DC8-4B6CB3EEF30F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t>i1</t>
   </si>
@@ -68,15 +68,6 @@
     <t>Nummer</t>
   </si>
   <si>
-    <t>titelnaam</t>
-  </si>
-  <si>
-    <t>genrenaam</t>
-  </si>
-  <si>
-    <t>regisseurnaam</t>
-  </si>
-  <si>
     <t>datum</t>
   </si>
   <si>
@@ -139,33 +130,15 @@
     <t>Rij 1</t>
   </si>
   <si>
-    <t>Modern Times</t>
-  </si>
-  <si>
     <t>Object 1</t>
   </si>
   <si>
-    <t>satire</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
     <t>Rij 2</t>
   </si>
   <si>
-    <t>The Big Lebowski</t>
-  </si>
-  <si>
     <t>Object 2</t>
   </si>
   <si>
-    <t>komedie</t>
-  </si>
-  <si>
-    <t>Joel Coen</t>
-  </si>
-  <si>
     <t>Rij 3</t>
   </si>
   <si>
@@ -187,32 +160,29 @@
     <t>k4</t>
   </si>
   <si>
-    <t>FilmMetTitelEnGenre</t>
-  </si>
-  <si>
-    <t>FilmMetTitelVanRegisseur</t>
-  </si>
-  <si>
-    <t>FilmMetTitelGeschiktVanafLeeftijd</t>
-  </si>
-  <si>
-    <t>FlimMetTitelStartOpDatumTijdstipInZaal</t>
-  </si>
-  <si>
-    <t>leeftijdnummer</t>
-  </si>
-  <si>
-    <t>zaalnummer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. De film met de </t>
+    <t>Soort</t>
+  </si>
+  <si>
+    <t>taartnaam</t>
+  </si>
+  <si>
+    <t>Appeltaart</t>
+  </si>
+  <si>
+    <t>Chocoladetaart</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Binnen de verzameling van alle taarten identificeert </t>
     </r>
     <r>
       <rPr>
@@ -222,15 +192,266 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>titel</t>
-    </r>
-    <r>
-      <rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soortnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; een specifieke taart.</t>
+    </r>
+  </si>
+  <si>
+    <t>variantnaam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Binnen de verzameling van alle varianten identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="8"/>
         <color rgb="FF7030A0"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;variantnaam&gt; een specifiek variant.</t>
+    </r>
+  </si>
+  <si>
+    <t>Normaal</t>
+  </si>
+  <si>
+    <t>Glutenvrij</t>
+  </si>
+  <si>
+    <t>Lactosevrij</t>
+  </si>
+  <si>
+    <t>locatienaam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Binnen de verzameling van alle locaties identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>locatienaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; een specifieke locatie.</t>
+    </r>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>Buurthuis</t>
+  </si>
+  <si>
+    <t>Bejaardenhuis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Binnen de verzameling van alle data identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; een specifieke datum.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Binnen de verzameling van alle tijdstippen identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>tijdstip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>tijdstip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; een specifiek tijdstip.</t>
+    </r>
+  </si>
+  <si>
+    <t>TaartMetSoortEnVariant</t>
+  </si>
+  <si>
+    <t>soortnaam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">De taart van </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -249,7 +470,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>titelnaam</t>
+      <t>soortnaam</t>
     </r>
     <r>
       <rPr>
@@ -264,11 +485,108 @@
       <rPr>
         <u/>
         <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>variantnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>TaartMetSoortOpLocatie</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">De taart van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FF7030A0"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>genre</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soortnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; is op de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>locatie</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +604,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>genrenaam</t>
+      <t>locatienaam</t>
     </r>
     <r>
       <rPr>
@@ -299,42 +617,167 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. De film met de </t>
+    <t>TaartMetSoortEnVoorGroepsaantal</t>
+  </si>
+  <si>
+    <t>groepsaantalnummer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">De taart van de </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color rgb="FF7030A0"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>titel</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soortnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; is voor de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>groepsaantal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>groepsaantalnummer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TaartVanSoortStartOpDatumTijdstipOpLocatie</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De taart van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soortnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; start op </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="8"/>
         <color rgb="FF7030A0"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
     </r>
     <r>
       <rPr>
@@ -343,16 +786,16 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>titelnaam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; is van de </t>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; en </t>
     </r>
     <r>
       <rPr>
@@ -362,7 +805,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>regisseur</t>
+      <t>tijdstip</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +823,44 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>regisseurnaam</t>
+      <t>tijdstip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; uur op </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>locatienaam</t>
     </r>
     <r>
       <rPr>
@@ -390,513 +870,6 @@
         <family val="2"/>
       </rPr>
       <t>&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. De film met de </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>titel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>titelnaam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; is geschikt vanaf de </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>leeftijd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>leeftijdnummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; jaar.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. De film met de </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>titel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>titelnaam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; start op </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>datum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>datum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; en </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tijdstip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tijdstip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; uur in </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>zaal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>zaalnummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <t>Soort</t>
-  </si>
-  <si>
-    <t>taartnaam</t>
-  </si>
-  <si>
-    <t>Appeltaart</t>
-  </si>
-  <si>
-    <t>Chocoladetaart</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Binnen de verzameling van alle taarten identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>soort</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>soortnaam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; een specifieke taart.</t>
-    </r>
-  </si>
-  <si>
-    <t>variantnaam</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. Binnen de verzameling van alle varianten identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>variant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;variantnaam&gt; een specifiek variant.</t>
-    </r>
-  </si>
-  <si>
-    <t>Normaal</t>
-  </si>
-  <si>
-    <t>Glutenvrij</t>
-  </si>
-  <si>
-    <t>Lactosevrij</t>
-  </si>
-  <si>
-    <t>locatienaam</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Binnen de verzameling van alle locaties identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>locatie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>locatienaam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; een specifieke locatie.</t>
-    </r>
-  </si>
-  <si>
-    <t>Locatie</t>
-  </si>
-  <si>
-    <t>Buurthuis</t>
-  </si>
-  <si>
-    <t>Bejaardenhuis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Binnen de verzameling van alle data identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>datum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>datum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; een specifieke datum.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Binnen de verzameling van alle tijdstippen identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tijdstip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tijdstip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; een specifiek tijdstip.</t>
     </r>
   </si>
 </sst>
@@ -907,7 +880,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +941,13 @@
       <sz val="11"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1336,13 +1316,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,45 +1380,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E666BFC-FE07-4D38-B77B-9B2DE507B9E1}">
   <dimension ref="A1:XDN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BU23" sqref="BU23"/>
+    <sheetView tabSelected="1" topLeftCell="AX37" workbookViewId="0">
+      <selection activeCell="BH49" sqref="BH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2215,7 +2195,7 @@
     </row>
     <row r="3" spans="1:132" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -2236,7 +2216,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="2"/>
       <c r="T3" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
@@ -2257,7 +2237,7 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AN3" s="6"/>
       <c r="AO3" s="7"/>
@@ -2753,7 +2733,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="2"/>
@@ -2767,27 +2747,27 @@
       <c r="M12" s="2"/>
       <c r="U12" s="15"/>
       <c r="V12" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="W12" s="17"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AP12" s="17"/>
       <c r="BG12" s="15"/>
       <c r="BH12" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BI12" s="17"/>
       <c r="BZ12" s="15"/>
       <c r="CA12" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="CB12" s="17"/>
       <c r="CS12" s="15"/>
       <c r="CT12" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CU12" s="17"/>
     </row>
@@ -2839,7 +2819,7 @@
     <row r="15" spans="1:132">
       <c r="A15" s="2"/>
       <c r="B15" s="21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2853,24 +2833,24 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="U15" s="21" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AN15" s="21" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="BG15" s="21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="BZ15" s="21" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="CS15" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:132">
       <c r="A16" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2885,32 +2865,32 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="T16" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BF16" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BY16" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="CR16" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:100" ht="13.9" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2921,72 +2901,72 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="T17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
       <c r="X17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AM17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="AN17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="34"/>
       <c r="AQ17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BF17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG17" s="25">
+        <v>15</v>
+      </c>
+      <c r="BG17" s="42">
         <v>45912</v>
       </c>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="27"/>
+      <c r="BH17" s="43"/>
+      <c r="BI17" s="44"/>
       <c r="BJ17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BY17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ17" s="28">
+        <v>15</v>
+      </c>
+      <c r="BZ17" s="45">
         <v>0.38541666666666669</v>
       </c>
-      <c r="CA17" s="29"/>
-      <c r="CB17" s="30"/>
+      <c r="CA17" s="46"/>
+      <c r="CB17" s="47"/>
       <c r="CC17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="CR17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="CS17" s="22">
+        <v>15</v>
+      </c>
+      <c r="CS17" s="29">
         <v>1</v>
       </c>
-      <c r="CT17" s="23"/>
-      <c r="CU17" s="24"/>
+      <c r="CT17" s="33"/>
+      <c r="CU17" s="34"/>
       <c r="CV17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:100" ht="13.9" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2997,72 +2977,72 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="T18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
       <c r="X18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="AN18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="34"/>
       <c r="AQ18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BF18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG18" s="25">
+        <v>17</v>
+      </c>
+      <c r="BG18" s="42">
         <v>45944</v>
       </c>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="27"/>
+      <c r="BH18" s="43"/>
+      <c r="BI18" s="44"/>
       <c r="BJ18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BY18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BZ18" s="28">
+        <v>17</v>
+      </c>
+      <c r="BZ18" s="45">
         <v>0.52083333333333337</v>
       </c>
-      <c r="CA18" s="29"/>
-      <c r="CB18" s="30"/>
+      <c r="CA18" s="46"/>
+      <c r="CB18" s="47"/>
       <c r="CC18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="CR18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS18" s="22">
+        <v>17</v>
+      </c>
+      <c r="CS18" s="29">
         <v>2</v>
       </c>
-      <c r="CT18" s="23"/>
-      <c r="CU18" s="24"/>
+      <c r="CT18" s="33"/>
+      <c r="CU18" s="34"/>
       <c r="CV18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:100" ht="13.9" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3073,64 +3053,64 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="T19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" s="23"/>
-      <c r="W19" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
       <c r="X19" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="AN19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="34"/>
       <c r="AQ19" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BF19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH19" s="23"/>
-      <c r="BI19" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="BG19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="34"/>
       <c r="BJ19" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BY19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="BZ19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA19" s="23"/>
-      <c r="CB19" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="BZ19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="34"/>
       <c r="CC19" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="CR19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="CS19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="CT19" s="23"/>
-      <c r="CU19" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="CS19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT19" s="33"/>
+      <c r="CU19" s="34"/>
       <c r="CV19" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:132" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3">
@@ -3163,7 +3143,7 @@
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="3">
@@ -3196,7 +3176,7 @@
       </c>
       <c r="AL40" s="3"/>
       <c r="AM40" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AN40" s="2"/>
       <c r="AO40" s="3">
@@ -3229,7 +3209,7 @@
       </c>
       <c r="BE40" s="3"/>
       <c r="BF40" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BG40" s="2"/>
       <c r="BH40" s="3">
@@ -3496,7 +3476,7 @@
     </row>
     <row r="42" spans="1:132" customFormat="1">
       <c r="A42" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -3517,7 +3497,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
@@ -3538,7 +3518,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AN42" s="6"/>
       <c r="AO42" s="7"/>
@@ -3559,7 +3539,7 @@
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
       <c r="BF42" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="BG42" s="6"/>
       <c r="BH42" s="7"/>
@@ -3638,70 +3618,70 @@
     </row>
     <row r="50" spans="1:71" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="31"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="T50" s="11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="13"/>
       <c r="W50" s="14"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="13"/>
-      <c r="Z50" s="31"/>
+      <c r="Z50" s="22"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AM50" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AN50" s="12"/>
       <c r="AO50" s="13"/>
       <c r="AP50" s="14"/>
       <c r="AQ50" s="12"/>
       <c r="AR50" s="13"/>
-      <c r="AS50" s="31"/>
+      <c r="AS50" s="22"/>
       <c r="AT50" s="2"/>
       <c r="BF50" s="11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BG50" s="12"/>
       <c r="BH50" s="13"/>
       <c r="BI50" s="14"/>
       <c r="BJ50" s="12"/>
       <c r="BK50" s="13"/>
-      <c r="BL50" s="31"/>
+      <c r="BL50" s="22"/>
       <c r="BM50" s="12"/>
       <c r="BN50" s="13"/>
-      <c r="BO50" s="31"/>
+      <c r="BO50" s="22"/>
       <c r="BP50" s="12"/>
       <c r="BQ50" s="13"/>
-      <c r="BR50" s="31"/>
+      <c r="BR50" s="22"/>
     </row>
     <row r="51" spans="1:71" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="15"/>
       <c r="C51" s="16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="G51" s="23"/>
       <c r="H51" s="2"/>
       <c r="I51" s="16"/>
       <c r="J51" s="2"/>
@@ -3709,14 +3689,14 @@
       <c r="T51" s="2"/>
       <c r="U51" s="15"/>
       <c r="V51" s="16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="W51" s="17"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z51" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="Z51" s="23"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -3725,36 +3705,36 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="15"/>
       <c r="AO51" s="16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="AP51" s="17"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS51" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="AS51" s="23"/>
       <c r="AT51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="15"/>
       <c r="BH51" s="16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="BI51" s="17"/>
       <c r="BJ51" s="15"/>
       <c r="BK51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL51" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="BL51" s="23"/>
       <c r="BM51" s="15"/>
       <c r="BN51" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="BO51" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="BO51" s="23"/>
       <c r="BP51" s="15"/>
       <c r="BQ51" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BR51" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="BR51" s="23"/>
     </row>
     <row r="52" spans="1:71" customFormat="1">
       <c r="A52" s="2"/>
@@ -3763,7 +3743,7 @@
       <c r="D52" s="20"/>
       <c r="E52" s="18"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3774,7 +3754,7 @@
       <c r="W52" s="20"/>
       <c r="X52" s="18"/>
       <c r="Y52" s="19"/>
-      <c r="Z52" s="33"/>
+      <c r="Z52" s="24"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
@@ -3786,7 +3766,7 @@
       <c r="AP52" s="20"/>
       <c r="AQ52" s="18"/>
       <c r="AR52" s="19"/>
-      <c r="AS52" s="33"/>
+      <c r="AS52" s="24"/>
       <c r="AT52" s="2"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="18"/>
@@ -3794,13 +3774,13 @@
       <c r="BI52" s="20"/>
       <c r="BJ52" s="18"/>
       <c r="BK52" s="19"/>
-      <c r="BL52" s="33"/>
+      <c r="BL52" s="24"/>
       <c r="BM52" s="18"/>
       <c r="BN52" s="19"/>
-      <c r="BO52" s="33"/>
+      <c r="BO52" s="24"/>
       <c r="BP52" s="18"/>
       <c r="BQ52" s="19"/>
-      <c r="BR52" s="33"/>
+      <c r="BR52" s="24"/>
     </row>
     <row r="53" spans="1:71" customFormat="1">
       <c r="A53" s="2"/>
@@ -3851,11 +3831,11 @@
     <row r="54" spans="1:71">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3865,26 +3845,26 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X54" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="X54" s="25"/>
       <c r="AN54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ54" s="34"/>
-      <c r="BG54" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ54" s="34"/>
-      <c r="BM54" s="34"/>
-      <c r="BP54" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="AQ54" s="25"/>
+      <c r="BG54" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ54" s="25"/>
+      <c r="BM54" s="25"/>
+      <c r="BP54" s="25"/>
     </row>
     <row r="55" spans="1:71">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="34"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3893,15 +3873,15 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="X55" s="34"/>
-      <c r="AQ55" s="34"/>
+      <c r="X55" s="25"/>
+      <c r="AQ55" s="25"/>
       <c r="BF55" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:71">
       <c r="A56" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3916,54 +3896,54 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="T56" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM56" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BF56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG56" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH56" s="36"/>
-      <c r="BI56" s="36"/>
-      <c r="BJ56" s="37">
-        <v>45357</v>
-      </c>
-      <c r="BK56" s="36"/>
-      <c r="BL56" s="22"/>
-      <c r="BM56" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="BN56" s="36"/>
-      <c r="BO56" s="22"/>
-      <c r="BP56" s="39">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="BG56" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH56" s="28"/>
+      <c r="BI56" s="28"/>
+      <c r="BJ56" s="35">
+        <v>45912</v>
+      </c>
+      <c r="BK56" s="28"/>
+      <c r="BL56" s="29"/>
+      <c r="BM56" s="36">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="BN56" s="28"/>
+      <c r="BO56" s="29"/>
+      <c r="BP56" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="BQ56" s="40"/>
       <c r="BR56" s="41"/>
       <c r="BS56" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.9" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="42" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -3971,80 +3951,80 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="T57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U57" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN57" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO57" s="28"/>
+      <c r="AP57" s="28"/>
+      <c r="AQ57" s="28">
+        <v>6</v>
+      </c>
+      <c r="AR57" s="28"/>
+      <c r="AS57" s="29"/>
+      <c r="AT57" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG57" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH57" s="28"/>
+      <c r="BI57" s="28"/>
+      <c r="BJ57" s="35">
+        <v>45944</v>
+      </c>
+      <c r="BK57" s="28"/>
+      <c r="BL57" s="29"/>
+      <c r="BM57" s="36">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="BN57" s="28"/>
+      <c r="BO57" s="29"/>
+      <c r="BP57" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ57" s="28"/>
+      <c r="BR57" s="38"/>
+      <c r="BS57" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U57" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN57" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO57" s="36"/>
-      <c r="AP57" s="36"/>
-      <c r="AQ57" s="36">
-        <v>6</v>
-      </c>
-      <c r="AR57" s="36"/>
-      <c r="AS57" s="22"/>
-      <c r="AT57" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG57" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH57" s="36"/>
-      <c r="BI57" s="36"/>
-      <c r="BJ57" s="37">
-        <v>45358</v>
-      </c>
-      <c r="BK57" s="36"/>
-      <c r="BL57" s="22"/>
-      <c r="BM57" s="38">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="BN57" s="36"/>
-      <c r="BO57" s="22"/>
-      <c r="BP57" s="43">
-        <v>2</v>
-      </c>
-      <c r="BQ57" s="36"/>
-      <c r="BR57" s="44"/>
-      <c r="BS57" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:71">
       <c r="A58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="42" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4052,80 +4032,80 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="T58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="42" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="U58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="AM58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN58" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO58" s="36"/>
-      <c r="AP58" s="36"/>
-      <c r="AQ58" s="36">
-        <v>12</v>
-      </c>
-      <c r="AR58" s="36"/>
-      <c r="AS58" s="22"/>
-      <c r="AT58" s="42" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="AN58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO58" s="28"/>
+      <c r="AP58" s="28"/>
+      <c r="AQ58" s="28">
+        <v>4</v>
+      </c>
+      <c r="AR58" s="28"/>
+      <c r="AS58" s="29"/>
+      <c r="AT58" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="BF58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG58" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH58" s="36"/>
-      <c r="BI58" s="36"/>
-      <c r="BJ58" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK58" s="36"/>
-      <c r="BL58" s="22"/>
-      <c r="BM58" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="BN58" s="36"/>
-      <c r="BO58" s="22"/>
-      <c r="BP58" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="BQ58" s="46"/>
-      <c r="BR58" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="BG58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH58" s="28"/>
+      <c r="BI58" s="28"/>
+      <c r="BJ58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK58" s="28"/>
+      <c r="BL58" s="29"/>
+      <c r="BM58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN58" s="28"/>
+      <c r="BO58" s="29"/>
+      <c r="BP58" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="BQ58" s="31"/>
+      <c r="BR58" s="32"/>
       <c r="BS58" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:71">
       <c r="A59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="42" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4133,36 +4113,36 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="T59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="V59" s="23"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="42" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="U59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="33"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO59" s="23"/>
-      <c r="AP59" s="24"/>
-      <c r="AQ59" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR59" s="36"/>
-      <c r="AS59" s="22"/>
-      <c r="AT59" s="42" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="AN59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="34"/>
+      <c r="AQ59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR59" s="28"/>
+      <c r="AS59" s="29"/>
+      <c r="AT59" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:132" customFormat="1" ht="12" customHeight="1">
@@ -5167,6 +5147,44 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="CS17:CU17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="BG17:BI17"/>
+    <mergeCell ref="BZ17:CB17"/>
+    <mergeCell ref="CS19:CU19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="BG18:BI18"/>
+    <mergeCell ref="BZ18:CB18"/>
+    <mergeCell ref="CS18:CU18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="BG19:BI19"/>
+    <mergeCell ref="BZ19:CB19"/>
+    <mergeCell ref="BG56:BI56"/>
+    <mergeCell ref="BJ56:BL56"/>
+    <mergeCell ref="BM56:BO56"/>
+    <mergeCell ref="BP56:BR56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AN57:AP57"/>
+    <mergeCell ref="AQ57:AS57"/>
+    <mergeCell ref="BG57:BI57"/>
+    <mergeCell ref="BJ57:BL57"/>
+    <mergeCell ref="BM57:BO57"/>
+    <mergeCell ref="BP57:BR57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="AN58:AP58"/>
+    <mergeCell ref="AQ58:AS58"/>
     <mergeCell ref="BG58:BI58"/>
     <mergeCell ref="BJ58:BL58"/>
     <mergeCell ref="BM58:BO58"/>
@@ -5177,45 +5195,8 @@
     <mergeCell ref="X59:Z59"/>
     <mergeCell ref="AN59:AP59"/>
     <mergeCell ref="AQ59:AS59"/>
-    <mergeCell ref="BG57:BI57"/>
-    <mergeCell ref="BJ57:BL57"/>
-    <mergeCell ref="BM57:BO57"/>
-    <mergeCell ref="BP57:BR57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="AN58:AP58"/>
-    <mergeCell ref="AQ58:AS58"/>
-    <mergeCell ref="BG56:BI56"/>
-    <mergeCell ref="BJ56:BL56"/>
-    <mergeCell ref="BM56:BO56"/>
-    <mergeCell ref="BP56:BR56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AN57:AP57"/>
-    <mergeCell ref="AQ57:AS57"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="BG19:BI19"/>
-    <mergeCell ref="BZ19:CB19"/>
-    <mergeCell ref="CS19:CU19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="BG18:BI18"/>
-    <mergeCell ref="BZ18:CB18"/>
-    <mergeCell ref="CS18:CU18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="BG17:BI17"/>
-    <mergeCell ref="BZ17:CB17"/>
-    <mergeCell ref="CS17:CU17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ontwerpen/Diagramiseren_Taart_Bakken.xlsx
+++ b/Ontwerpen/Diagramiseren_Taart_Bakken.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\Ontwerpen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF4F472-7393-42C4-9768-5D1803C59595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423483E1-4957-4332-9F86-37EE0BAD7DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45507C82-DFC2-44BF-9DC8-4B6CB3EEF30F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{45507C82-DFC2-44BF-9DC8-4B6CB3EEF30F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Verwoorden etc." sheetId="2" r:id="rId1"/>
+    <sheet name="Diagrammen" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
   <si>
     <t>i1</t>
   </si>
@@ -62,68 +63,9 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Tijdstip</t>
-  </si>
-  <si>
-    <t>Nummer</t>
-  </si>
-  <si>
     <t>datum</t>
   </si>
   <si>
-    <t>tijdstip</t>
-  </si>
-  <si>
-    <t>nummer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. Binnen de verzameling van alle nummers identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>nummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>nummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; een specifiek nummer.</t>
-    </r>
-  </si>
-  <si>
     <t>Populatie</t>
   </si>
   <si>
@@ -161,9 +103,6 @@
   </si>
   <si>
     <t>Soort</t>
-  </si>
-  <si>
-    <t>taartnaam</t>
   </si>
   <si>
     <t>Appeltaart</t>
@@ -373,53 +312,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Binnen de verzameling van alle tijdstippen identificeert </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tijdstip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tijdstip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; een specifiek tijdstip.</t>
-    </r>
-  </si>
-  <si>
     <t>TaartMetSoortEnVariant</t>
   </si>
   <si>
@@ -617,20 +509,2398 @@
     </r>
   </si>
   <si>
-    <t>TaartMetSoortEnVoorGroepsaantal</t>
-  </si>
-  <si>
-    <t>groepsaantalnummer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">De taart van de </t>
+    <t>TaartVanSoortStartOpDatumTijdstipOpLocatie</t>
+  </si>
+  <si>
+    <t>Verwoorden</t>
+  </si>
+  <si>
+    <t>Klassificeren</t>
+  </si>
+  <si>
+    <t>Het appeltaart bakken is voor maximaal 10 personen</t>
+  </si>
+  <si>
+    <t>Het taartbakken is voor maximaal 4 personen</t>
+  </si>
+  <si>
+    <t>Het nougatinetaartjes bakken is voor maximaal 5 personen</t>
+  </si>
+  <si>
+    <t>De appeltaart is van het variant normaal</t>
+  </si>
+  <si>
+    <t>De chocoladetaart is van het variant lactosevrij</t>
+  </si>
+  <si>
+    <t>De nougatinetaartjes is van het variant glutenvrij</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De appeltaart is van het variant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normaal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De chocoladetaart is van het variant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lactosevrij</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De nougatinetaartjes is van het variant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glutenvrij</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het appeltaart bakken is voor maximaal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het taartbakken is voor maximaal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het nougatinetaartjes bakken is voor maximaal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> personen</t>
+    </r>
+  </si>
+  <si>
+    <t>Buurtbewoner Johan schrijft zich in voor het taart bakken van de soort appeltaart op de datum 12 september om starttijd 09:15 bij de locatie het buurthuis</t>
+  </si>
+  <si>
+    <t>Buurtbewoner Bart schrijft zich in voor het taart bakken van de soort chocoladetaart op de datum 14 september om starttijd 12:30 bij de locatie het bejaardenhuis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buurtbewoner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Johan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schrijft zich in voor het taart bakken van de soort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appeltaart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op de datum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> om starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09:15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bij de locatie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>het buurthuis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buurtbewoner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schrijft zich in voor het taart bakken van de soort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chocoladetaart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op de datum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> om starttijd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bij de locatie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>het bejaardenhuis</t>
+    </r>
+  </si>
+  <si>
+    <t>Buurtbewoner Desiree schrijft zich in voor het taart bakken van de soort nougatinetaartjes op de datum 14 september om starttijd 11:45 bij de locatie het buurthuis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buurtbewoner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desiree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schrijft zich in voor het taart bakken van de soort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nougatinetaartjes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op de datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> om starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11:45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bij de locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> het buurthuis</t>
+    </r>
+  </si>
+  <si>
+    <t>Kwalificeren</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buurtbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Johan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schrijft zich in voor het taart bakken van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appeltaart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> om </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09:15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bij de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>het buurthuis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buurtbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schrijft zich in voor het taart bakken van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chocoladetaart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> om </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bij de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>het bejaardenhuis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buurtbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desiree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schrijft zich in voor het taart bakken van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nougatinetaartjes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> om </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11:45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bij de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> het buurthuis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De appeltaart is van het </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normaal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De chocoladetaart is van het </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lactosevrij</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De nougatinetaartjes is van het </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glutenvrij</t>
+    </r>
+  </si>
+  <si>
+    <t>Begrippen</t>
+  </si>
+  <si>
+    <t>Buurtbewoner</t>
+  </si>
+  <si>
+    <t>Starttijd</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Identificeren</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van  alle buurbewoners identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buurbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desiree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke buurtbewoner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van  alle buurbewoners identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buurbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke buurtbewoner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van  alle buurbewoners identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buurbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Johan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke buurtbewoner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle soorten identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appeltaart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke soort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle varianten identifieert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glutenvrij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke variant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle varianten identifieert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lactosevrij</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke variant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle varianten identifieert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke variant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle data identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke datum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle data identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14 september</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke datum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van starttijden identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9:15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke starttijd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van starttijden identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke starttijd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van starttijden identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11:45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke starttijd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van locaties identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>het bejaardenhuis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke locatie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van locaties identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> het buurthuis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke locatie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het appeltaart bakken is voor </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het taartbakken is voor </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het nougatinetaartjes bakken is voor </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximaal aantal personen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifiek maximum personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Binnen de verzameling</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> maximaal aantal personen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifiek maximum personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximaal aantal personen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifiek maximum personen</t>
+    </r>
+  </si>
+  <si>
+    <t>Sjabloniseren</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle soorten identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soortnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; een specifieke soort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van  alle buurbewoners identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buurbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buurtbewonernaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; een specifieke buurtbewoner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle varianten identifieert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variantnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; een specifieke variant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van alle data identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; een specifieke datum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van starttijden identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starttijd</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke starttijd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van locaties identificeert </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>het &lt;locatienaam&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> een specifieke locatie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximaal aantal personen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> identificeert &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximumnummer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; een specifiek maximum personen</t>
+    </r>
+  </si>
+  <si>
+    <t>starttijd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van starttijden identificeert </t>
     </r>
     <r>
       <rPr>
@@ -640,43 +2910,43 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>soort</t>
+      <t>starttijd</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FF7030A0"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> &lt;</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;</t>
+      <t>starttijd</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>soortnaam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; is voor de </t>
+      <t>&gt; een specifieke starttijd</t>
+    </r>
+  </si>
+  <si>
+    <t>maximumnummer</t>
+  </si>
+  <si>
+    <t>MaximaalAantalPersonen</t>
+  </si>
+  <si>
+    <r>
+      <t>Binnen de verzameling</t>
     </r>
     <r>
       <rPr>
@@ -686,16 +2956,15 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>groepsaantal</t>
+      <t xml:space="preserve"> maximaal aantal personen </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> &lt;</t>
+      <t>identificeert &lt;</t>
     </r>
     <r>
       <rPr>
@@ -704,24 +2973,26 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>groepsaantalnummer</t>
+      <t>maximumnummer</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>TaartVanSoortStartOpDatumTijdstipOpLocatie</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De taart van de </t>
+      <t>&gt; een specifiek maximum personen</t>
+    </r>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>buurtbewoner</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnen de verzameling van  alle buurbewoners identificeert </t>
     </r>
     <r>
       <rPr>
@@ -731,6 +3002,165 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>buurbewoner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>buurtbewonernaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; een specifieke buurtbewoner</t>
+    </r>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Desiree</t>
+  </si>
+  <si>
+    <t>Nougatinetaartjes</t>
+  </si>
+  <si>
+    <t>TaartMetSoortEnMaximaalAantalPersonen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">De taart van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>soortnaam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; is voor </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>maximaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>maximumnummer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>personen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De taart van de </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>soort</t>
     </r>
     <r>
@@ -805,7 +3235,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>tijdstip</t>
+      <t>startijd</t>
     </r>
     <r>
       <rPr>
@@ -823,7 +3253,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>tijdstip</t>
+      <t>starttijd</t>
     </r>
     <r>
       <rPr>
@@ -880,7 +3310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +3377,44 @@
       <color theme="8"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1273,7 +3741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1322,46 +3790,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,6 +3815,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,11 +4187,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F996F5-E6C2-4903-9D42-1C0017DB7C38}">
+  <dimension ref="A1:A88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="48" customFormat="1">
+      <c r="A43" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="48" customFormat="1">
+      <c r="A53" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E666BFC-FE07-4D38-B77B-9B2DE507B9E1}">
   <dimension ref="A1:XDN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX37" workbookViewId="0">
-      <selection activeCell="BH49" sqref="BH49"/>
+    <sheetView tabSelected="1" topLeftCell="BD40" workbookViewId="0">
+      <selection activeCell="BS58" sqref="BS58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2027,7 +4844,7 @@
       </c>
       <c r="DJ1" s="3"/>
       <c r="DK1" s="1" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="DL1" s="2"/>
       <c r="DM1" s="3">
@@ -2195,7 +5012,7 @@
     </row>
     <row r="3" spans="1:132" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -2216,7 +5033,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="2"/>
       <c r="T3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
@@ -2237,7 +5054,7 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AN3" s="6"/>
       <c r="AO3" s="7"/>
@@ -2279,7 +5096,7 @@
       <c r="BW3" s="2"/>
       <c r="BX3" s="3"/>
       <c r="BY3" s="5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="BZ3" s="6"/>
       <c r="CA3" s="7"/>
@@ -2300,7 +5117,7 @@
       <c r="CP3" s="2"/>
       <c r="CQ3" s="2"/>
       <c r="CR3" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="CS3" s="6"/>
       <c r="CT3" s="7"/>
@@ -2320,7 +5137,9 @@
       <c r="DH3" s="2"/>
       <c r="DI3" s="2"/>
       <c r="DJ3" s="2"/>
-      <c r="DK3" s="5"/>
+      <c r="DK3" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="DL3" s="6"/>
       <c r="DM3" s="7"/>
       <c r="DN3" s="2"/>
@@ -2663,10 +5482,10 @@
       <c r="DH10" s="2"/>
       <c r="DI10" s="2"/>
       <c r="DJ10" s="2"/>
-      <c r="DK10" s="2"/>
-      <c r="DL10" s="2"/>
-      <c r="DM10" s="2"/>
-      <c r="DN10" s="2"/>
+      <c r="DK10" s="10"/>
+      <c r="DL10" s="10"/>
+      <c r="DM10" s="10"/>
+      <c r="DN10" s="10"/>
       <c r="DO10" s="2"/>
       <c r="DP10" s="2"/>
       <c r="DQ10" s="2"/>
@@ -2728,12 +5547,18 @@
       <c r="CS11" s="12"/>
       <c r="CT11" s="13"/>
       <c r="CU11" s="14"/>
+      <c r="DJ11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="DK11" s="12"/>
+      <c r="DL11" s="13"/>
+      <c r="DM11" s="14"/>
     </row>
     <row r="12" spans="1:132" ht="12.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="2"/>
@@ -2747,29 +5572,34 @@
       <c r="M12" s="2"/>
       <c r="U12" s="15"/>
       <c r="V12" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W12" s="17"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AP12" s="17"/>
       <c r="BG12" s="15"/>
       <c r="BH12" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI12" s="17"/>
       <c r="BZ12" s="15"/>
       <c r="CA12" s="16" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="CB12" s="17"/>
       <c r="CS12" s="15"/>
       <c r="CT12" s="16" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="CU12" s="17"/>
+      <c r="DK12" s="15"/>
+      <c r="DL12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM12" s="17"/>
     </row>
     <row r="13" spans="1:132">
       <c r="A13" s="2"/>
@@ -2800,6 +5630,9 @@
       <c r="CS13" s="18"/>
       <c r="CT13" s="19"/>
       <c r="CU13" s="20"/>
+      <c r="DK13" s="18"/>
+      <c r="DL13" s="19"/>
+      <c r="DM13" s="20"/>
     </row>
     <row r="14" spans="1:132" ht="12.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -2819,7 +5652,7 @@
     <row r="15" spans="1:132">
       <c r="A15" s="2"/>
       <c r="B15" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2833,24 +5666,27 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="U15" s="21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AN15" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BG15" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BZ15" s="21" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="CS15" s="21" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="DK15" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:132">
       <c r="A16" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2865,32 +5701,35 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="T16" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BF16" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BY16" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="CR16" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:100" ht="13.9" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="DJ16" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:118" ht="13.9" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2901,72 +5740,83 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="T17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="29"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="33"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN17" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="34"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="30"/>
       <c r="AQ17" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BF17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG17" s="42">
+        <v>10</v>
+      </c>
+      <c r="BG17" s="31">
         <v>45912</v>
       </c>
-      <c r="BH17" s="43"/>
-      <c r="BI17" s="44"/>
+      <c r="BH17" s="32"/>
+      <c r="BI17" s="33"/>
       <c r="BJ17" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BY17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="BZ17" s="45">
+        <v>10</v>
+      </c>
+      <c r="BZ17" s="34">
         <v>0.38541666666666669</v>
       </c>
-      <c r="CA17" s="46"/>
-      <c r="CB17" s="47"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="36"/>
       <c r="CC17" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="CR17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="CS17" s="29">
-        <v>1</v>
-      </c>
-      <c r="CT17" s="33"/>
-      <c r="CU17" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="CS17" s="28">
+        <v>10</v>
+      </c>
+      <c r="CT17" s="29"/>
+      <c r="CU17" s="30"/>
       <c r="CV17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:100" ht="13.9" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="DJ17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK17" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL17" s="29"/>
+      <c r="DM17" s="30"/>
+      <c r="DN17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:118" ht="13.9" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2977,72 +5827,83 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="T18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="29"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="33"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="34"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="30"/>
       <c r="AQ18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BF18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG18" s="42">
+        <v>12</v>
+      </c>
+      <c r="BG18" s="31">
         <v>45944</v>
       </c>
-      <c r="BH18" s="43"/>
-      <c r="BI18" s="44"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="33"/>
       <c r="BJ18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BY18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BZ18" s="45">
+        <v>12</v>
+      </c>
+      <c r="BZ18" s="34">
         <v>0.52083333333333337</v>
       </c>
-      <c r="CA18" s="46"/>
-      <c r="CB18" s="47"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="36"/>
       <c r="CC18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="CR18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="CS18" s="29">
-        <v>2</v>
-      </c>
-      <c r="CT18" s="33"/>
-      <c r="CU18" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="CS18" s="28">
+        <v>4</v>
+      </c>
+      <c r="CT18" s="29"/>
+      <c r="CU18" s="30"/>
       <c r="CV18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:100" ht="13.9" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="DJ18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="DK18" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="DL18" s="29"/>
+      <c r="DM18" s="30"/>
+      <c r="DN18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:118" ht="13.9" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3053,64 +5914,75 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="T19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="U19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
       <c r="X19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="AN19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="30"/>
       <c r="AQ19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BF19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH19" s="33"/>
-      <c r="BI19" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="BG19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="30"/>
       <c r="BJ19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BY19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="BZ19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="CA19" s="33"/>
-      <c r="CB19" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="BZ19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="CA19" s="29"/>
+      <c r="CB19" s="30"/>
       <c r="CC19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="CR19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="CS19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="CT19" s="33"/>
-      <c r="CU19" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="CS19" s="28">
+        <v>5</v>
+      </c>
+      <c r="CT19" s="29"/>
+      <c r="CU19" s="30"/>
       <c r="CV19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="DJ19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="DK19" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL19" s="29"/>
+      <c r="DM19" s="30"/>
+      <c r="DN19" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:132" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3">
@@ -3143,7 +6015,7 @@
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="3">
@@ -3176,7 +6048,7 @@
       </c>
       <c r="AL40" s="3"/>
       <c r="AM40" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AN40" s="2"/>
       <c r="AO40" s="3">
@@ -3209,7 +6081,7 @@
       </c>
       <c r="BE40" s="3"/>
       <c r="BF40" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BG40" s="2"/>
       <c r="BH40" s="3">
@@ -3476,7 +6348,7 @@
     </row>
     <row r="42" spans="1:132" customFormat="1">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -3497,7 +6369,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
@@ -3518,7 +6390,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="5" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="AN42" s="6"/>
       <c r="AO42" s="7"/>
@@ -3539,7 +6411,7 @@
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
       <c r="BF42" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="BG42" s="6"/>
       <c r="BH42" s="7"/>
@@ -3618,7 +6490,7 @@
     </row>
     <row r="50" spans="1:71" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -3631,7 +6503,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="T50" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="13"/>
@@ -3645,7 +6517,7 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AM50" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AN50" s="12"/>
       <c r="AO50" s="13"/>
@@ -3655,7 +6527,7 @@
       <c r="AS50" s="22"/>
       <c r="AT50" s="2"/>
       <c r="BF50" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BG50" s="12"/>
       <c r="BH50" s="13"/>
@@ -3674,12 +6546,12 @@
       <c r="A51" s="2"/>
       <c r="B51" s="15"/>
       <c r="C51" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="2"/>
@@ -3689,12 +6561,12 @@
       <c r="T51" s="2"/>
       <c r="U51" s="15"/>
       <c r="V51" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="W51" s="17"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Z51" s="23"/>
       <c r="AA51" s="2"/>
@@ -3705,34 +6577,34 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="15"/>
       <c r="AO51" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AP51" s="17"/>
       <c r="AQ51" s="15"/>
       <c r="AR51" s="16" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="AS51" s="23"/>
       <c r="AT51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="15"/>
       <c r="BH51" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BI51" s="17"/>
       <c r="BJ51" s="15"/>
       <c r="BK51" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BL51" s="23"/>
       <c r="BM51" s="15"/>
       <c r="BN51" s="16" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="BO51" s="23"/>
       <c r="BP51" s="15"/>
       <c r="BQ51" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BR51" s="23"/>
     </row>
@@ -3831,7 +6703,7 @@
     <row r="54" spans="1:71">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3845,15 +6717,15 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="X54" s="25"/>
       <c r="AN54" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AQ54" s="25"/>
       <c r="BG54" s="26" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="BJ54" s="25"/>
       <c r="BM54" s="25"/>
@@ -3876,12 +6748,12 @@
       <c r="X55" s="25"/>
       <c r="AQ55" s="25"/>
       <c r="BF55" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:71">
       <c r="A56" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3896,54 +6768,54 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="T56" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AM56" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BF56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH56" s="28"/>
-      <c r="BI56" s="28"/>
-      <c r="BJ56" s="35">
+        <v>10</v>
+      </c>
+      <c r="BG56" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH56" s="37"/>
+      <c r="BI56" s="37"/>
+      <c r="BJ56" s="38">
         <v>45912</v>
       </c>
-      <c r="BK56" s="28"/>
-      <c r="BL56" s="29"/>
-      <c r="BM56" s="36">
+      <c r="BK56" s="37"/>
+      <c r="BL56" s="28"/>
+      <c r="BM56" s="39">
         <v>0.38541666666666669</v>
       </c>
-      <c r="BN56" s="28"/>
-      <c r="BO56" s="29"/>
-      <c r="BP56" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="BQ56" s="40"/>
-      <c r="BR56" s="41"/>
+      <c r="BN56" s="37"/>
+      <c r="BO56" s="28"/>
+      <c r="BP56" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ56" s="41"/>
+      <c r="BR56" s="42"/>
       <c r="BS56" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:71" ht="13.9" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -3951,80 +6823,80 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="T57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U57" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="U57" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="28"/>
       <c r="AA57" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AM57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN57" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO57" s="28"/>
-      <c r="AP57" s="28"/>
-      <c r="AQ57" s="28">
+        <v>10</v>
+      </c>
+      <c r="AN57" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO57" s="37"/>
+      <c r="AP57" s="37"/>
+      <c r="AQ57" s="37">
         <v>6</v>
       </c>
-      <c r="AR57" s="28"/>
-      <c r="AS57" s="29"/>
+      <c r="AR57" s="37"/>
+      <c r="AS57" s="28"/>
       <c r="AT57" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BF57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG57" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH57" s="28"/>
-      <c r="BI57" s="28"/>
-      <c r="BJ57" s="35">
-        <v>45944</v>
-      </c>
-      <c r="BK57" s="28"/>
-      <c r="BL57" s="29"/>
-      <c r="BM57" s="36">
+        <v>12</v>
+      </c>
+      <c r="BG57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH57" s="37"/>
+      <c r="BI57" s="37"/>
+      <c r="BJ57" s="38">
+        <v>45914</v>
+      </c>
+      <c r="BK57" s="37"/>
+      <c r="BL57" s="28"/>
+      <c r="BM57" s="39">
         <v>0.52083333333333337</v>
       </c>
-      <c r="BN57" s="28"/>
-      <c r="BO57" s="29"/>
-      <c r="BP57" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ57" s="28"/>
-      <c r="BR57" s="38"/>
+      <c r="BN57" s="37"/>
+      <c r="BO57" s="28"/>
+      <c r="BP57" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ57" s="37"/>
+      <c r="BR57" s="44"/>
       <c r="BS57" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:71">
       <c r="A58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="37"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4032,80 +6904,80 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="T58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U58" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="U58" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="28"/>
       <c r="AA58" s="27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AM58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN58" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO58" s="28"/>
-      <c r="AP58" s="28"/>
-      <c r="AQ58" s="28">
+        <v>12</v>
+      </c>
+      <c r="AN58" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO58" s="37"/>
+      <c r="AP58" s="37"/>
+      <c r="AQ58" s="37">
         <v>4</v>
       </c>
-      <c r="AR58" s="28"/>
-      <c r="AS58" s="29"/>
+      <c r="AR58" s="37"/>
+      <c r="AS58" s="28"/>
       <c r="AT58" s="27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BF58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG58" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH58" s="28"/>
-      <c r="BI58" s="28"/>
-      <c r="BJ58" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK58" s="28"/>
-      <c r="BL58" s="29"/>
-      <c r="BM58" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN58" s="28"/>
-      <c r="BO58" s="29"/>
-      <c r="BP58" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="BQ58" s="31"/>
-      <c r="BR58" s="32"/>
+        <v>14</v>
+      </c>
+      <c r="BG58" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH58" s="37"/>
+      <c r="BI58" s="37"/>
+      <c r="BJ58" s="49">
+        <v>45914</v>
+      </c>
+      <c r="BK58" s="37"/>
+      <c r="BL58" s="28"/>
+      <c r="BM58" s="39">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="BN58" s="37"/>
+      <c r="BO58" s="28"/>
+      <c r="BP58" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ58" s="46"/>
+      <c r="BR58" s="47"/>
       <c r="BS58" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:71">
       <c r="A59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4113,36 +6985,34 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="T59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="V59" s="33"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="U59" s="28"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="28"/>
       <c r="AA59" s="27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN59" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO59" s="33"/>
-      <c r="AP59" s="34"/>
-      <c r="AQ59" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR59" s="28"/>
-      <c r="AS59" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="AN59" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="30"/>
+      <c r="AQ59" s="37">
+        <v>5</v>
+      </c>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="28"/>
       <c r="AT59" s="27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:132" customFormat="1" ht="12" customHeight="1">
@@ -5146,25 +8016,26 @@
       <c r="EB120" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="CS17:CU17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="BG17:BI17"/>
-    <mergeCell ref="BZ17:CB17"/>
-    <mergeCell ref="CS19:CU19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="BG18:BI18"/>
-    <mergeCell ref="BZ18:CB18"/>
-    <mergeCell ref="CS18:CU18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="BG19:BI19"/>
-    <mergeCell ref="BZ19:CB19"/>
+  <mergeCells count="51">
+    <mergeCell ref="AQ59:AS59"/>
+    <mergeCell ref="DK19:DM19"/>
+    <mergeCell ref="DK18:DM18"/>
+    <mergeCell ref="DK17:DM17"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AN59:AP59"/>
+    <mergeCell ref="AQ58:AS58"/>
+    <mergeCell ref="BG58:BI58"/>
+    <mergeCell ref="BJ58:BL58"/>
+    <mergeCell ref="BM58:BO58"/>
+    <mergeCell ref="BP58:BR58"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="AN58:AP58"/>
     <mergeCell ref="BG56:BI56"/>
     <mergeCell ref="BJ56:BL56"/>
     <mergeCell ref="BM56:BO56"/>
@@ -5179,22 +8050,24 @@
     <mergeCell ref="BJ57:BL57"/>
     <mergeCell ref="BM57:BO57"/>
     <mergeCell ref="BP57:BR57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="AN58:AP58"/>
-    <mergeCell ref="AQ58:AS58"/>
-    <mergeCell ref="BG58:BI58"/>
-    <mergeCell ref="BJ58:BL58"/>
-    <mergeCell ref="BM58:BO58"/>
-    <mergeCell ref="BP58:BR58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AN59:AP59"/>
-    <mergeCell ref="AQ59:AS59"/>
+    <mergeCell ref="CS19:CU19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="BG18:BI18"/>
+    <mergeCell ref="BZ18:CB18"/>
+    <mergeCell ref="CS18:CU18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="BG19:BI19"/>
+    <mergeCell ref="BZ19:CB19"/>
+    <mergeCell ref="CS17:CU17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="BG17:BI17"/>
+    <mergeCell ref="BZ17:CB17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
